--- a/integration-tests/src/it/resources/import/import-requirement.xlsx
+++ b/integration-tests/src/it/resources/import/import-requirement.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>PATH</t>
   </si>
@@ -114,9 +114,6 @@
     <t>truc</t>
   </si>
   <si>
-    <t>c'est pas test oignons</t>
-  </si>
-  <si>
     <t>machin</t>
   </si>
   <si>
@@ -216,7 +213,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <color rgb="FFFF0000"/>
+        <color indexed="10"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -252,6 +249,12 @@
   </si>
   <si>
     <t>will be renamed because of homonyme folder</t>
+  </si>
+  <si>
+    <t>REQUIREMENT_PATH</t>
+  </si>
+  <si>
+    <t>c'est pas tes oignons</t>
   </si>
 </sst>
 </file>
@@ -306,7 +309,13 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -316,12 +325,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -475,14 +478,14 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -568,7 +571,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -852,197 +855,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L241"/>
+  <dimension ref="A1:M241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="16" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" style="16" customWidth="1"/>
-    <col min="5" max="6" width="20.42578125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="15" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="16" customWidth="1"/>
-    <col min="11" max="11" width="16" style="16" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="15" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="16"/>
+    <col min="2" max="3" width="29.85546875" style="16" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" style="16" customWidth="1"/>
+    <col min="6" max="7" width="20.42578125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="15" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="35.42578125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" style="16" customWidth="1"/>
+    <col min="12" max="12" width="16" style="16" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="15" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="12" customFormat="1" ht="12">
+    <row r="1" spans="1:13" s="12" customFormat="1" ht="12">
       <c r="A1" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="12">
+      <c r="A2" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>6</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="24">
+        <v>20510</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="26">
+        <v>30861</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" ht="12">
+      <c r="A3" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="12">
-      <c r="A2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="H3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="12">
+      <c r="A4" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10">
+        <v>57</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="26">
+        <v>30858</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="12">
+      <c r="A5" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9">
-        <v>6</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="24">
-        <v>20510</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="26">
-        <v>30861</v>
-      </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" ht="12">
-      <c r="A3" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9">
-        <v>2</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="10">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="12">
-      <c r="A4" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10">
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="26">
+        <v>30859</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="31" customFormat="1" ht="12">
+      <c r="A6" s="28" t="s">
         <v>57</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="26">
-        <v>30858</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="12">
-      <c r="A5" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="26">
-        <v>30859</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="31" customFormat="1" ht="12">
-      <c r="A6" s="28" t="s">
-        <v>58</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -1050,2050 +1060,2285 @@
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="29"/>
+      <c r="J6" s="30"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
-    </row>
-    <row r="7" spans="1:12" ht="12">
+      <c r="M6" s="29"/>
+    </row>
+    <row r="7" spans="1:13" ht="12">
       <c r="A7" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>42</v>
+      <c r="G7" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="26">
+        <v>41</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="26">
         <v>30860</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10">
+      <c r="L7" s="10"/>
+      <c r="M7" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="12">
+    <row r="8" spans="1:13" ht="12">
       <c r="A8" s="16"/>
       <c r="B8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="9">
+        <v>34</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9">
         <v>1</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="12">
+      <c r="A9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="12">
-      <c r="A9" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
+      <c r="C9" s="9"/>
       <c r="D9" s="9">
         <v>1</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>39</v>
+      <c r="E9" s="9">
+        <v>1</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="10"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M9" s="10"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="17"/>
+      <c r="E11" s="12"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="17"/>
+      <c r="E12" s="12"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="17"/>
+      <c r="E13" s="12"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="17"/>
+      <c r="E14" s="12"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="17"/>
+      <c r="E15" s="12"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="17"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="17"/>
+      <c r="E16" s="12"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="2:12">
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="2:13">
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="17"/>
+      <c r="E17" s="12"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="2:12">
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="2:13">
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="17"/>
+      <c r="E18" s="12"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="2:12">
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="2:13">
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="17"/>
+      <c r="E19" s="12"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="2:12">
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="2:13">
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="17"/>
+      <c r="E20" s="12"/>
+      <c r="H20" s="18"/>
       <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="2:12">
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="2:13">
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="17"/>
+      <c r="E21" s="12"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="2:12">
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="2:13">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="17"/>
+      <c r="E22" s="12"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="2:12">
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="2:13">
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="17"/>
+      <c r="E23" s="12"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="2:12">
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="2:13">
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="17"/>
+      <c r="E24" s="12"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="2:12">
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="2:13">
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="17"/>
+      <c r="E25" s="12"/>
+      <c r="H25" s="18"/>
       <c r="I25" s="17"/>
-    </row>
-    <row r="26" spans="2:12">
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="2:13">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="17"/>
+      <c r="E26" s="12"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="17"/>
-    </row>
-    <row r="27" spans="2:12">
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="2:13">
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="17"/>
+      <c r="E27" s="12"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="17"/>
-    </row>
-    <row r="28" spans="2:12">
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="2:13">
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="17"/>
+      <c r="E28" s="12"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="2:12">
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" spans="2:13">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="17"/>
+      <c r="E29" s="12"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="17"/>
-      <c r="L29" s="18"/>
-    </row>
-    <row r="30" spans="2:12">
+      <c r="J29" s="17"/>
+      <c r="M29" s="18"/>
+    </row>
+    <row r="30" spans="2:13">
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="17"/>
+      <c r="E30" s="12"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="17"/>
-      <c r="L30" s="18"/>
-    </row>
-    <row r="31" spans="2:12">
+      <c r="J30" s="17"/>
+      <c r="M30" s="18"/>
+    </row>
+    <row r="31" spans="2:13">
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="17"/>
+      <c r="E31" s="12"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="17"/>
-      <c r="L31" s="18"/>
-    </row>
-    <row r="32" spans="2:12">
+      <c r="J31" s="17"/>
+      <c r="M31" s="18"/>
+    </row>
+    <row r="32" spans="2:13">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="17"/>
+      <c r="E32" s="12"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="17"/>
-      <c r="L32" s="18"/>
-    </row>
-    <row r="33" spans="2:12">
+      <c r="J32" s="17"/>
+      <c r="M32" s="18"/>
+    </row>
+    <row r="33" spans="2:13">
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="17"/>
+      <c r="E33" s="12"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="17"/>
-      <c r="L33" s="18"/>
-    </row>
-    <row r="34" spans="2:12">
+      <c r="J33" s="17"/>
+      <c r="M33" s="18"/>
+    </row>
+    <row r="34" spans="2:13">
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="17"/>
+      <c r="E34" s="12"/>
+      <c r="H34" s="18"/>
       <c r="I34" s="17"/>
-      <c r="L34" s="18"/>
-    </row>
-    <row r="35" spans="2:12">
+      <c r="J34" s="17"/>
+      <c r="M34" s="18"/>
+    </row>
+    <row r="35" spans="2:13">
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="17"/>
+      <c r="E35" s="12"/>
+      <c r="H35" s="18"/>
       <c r="I35" s="17"/>
-      <c r="L35" s="18"/>
-    </row>
-    <row r="36" spans="2:12">
+      <c r="J35" s="17"/>
+      <c r="M35" s="18"/>
+    </row>
+    <row r="36" spans="2:13">
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="17"/>
+      <c r="E36" s="12"/>
+      <c r="H36" s="18"/>
       <c r="I36" s="17"/>
-      <c r="L36" s="18"/>
-    </row>
-    <row r="37" spans="2:12">
+      <c r="J36" s="17"/>
+      <c r="M36" s="18"/>
+    </row>
+    <row r="37" spans="2:13">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="17"/>
+      <c r="E37" s="12"/>
+      <c r="H37" s="18"/>
       <c r="I37" s="17"/>
-      <c r="L37" s="18"/>
-    </row>
-    <row r="38" spans="2:12">
+      <c r="J37" s="17"/>
+      <c r="M37" s="18"/>
+    </row>
+    <row r="38" spans="2:13">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="17"/>
+      <c r="E38" s="12"/>
+      <c r="H38" s="18"/>
       <c r="I38" s="17"/>
-      <c r="L38" s="18"/>
-    </row>
-    <row r="39" spans="2:12">
+      <c r="J38" s="17"/>
+      <c r="M38" s="18"/>
+    </row>
+    <row r="39" spans="2:13">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="17"/>
+      <c r="E39" s="12"/>
+      <c r="H39" s="18"/>
       <c r="I39" s="17"/>
-      <c r="L39" s="18"/>
-    </row>
-    <row r="40" spans="2:12">
+      <c r="J39" s="17"/>
+      <c r="M39" s="18"/>
+    </row>
+    <row r="40" spans="2:13">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="17"/>
+      <c r="E40" s="12"/>
+      <c r="H40" s="18"/>
       <c r="I40" s="17"/>
-      <c r="L40" s="18"/>
-    </row>
-    <row r="41" spans="2:12">
+      <c r="J40" s="17"/>
+      <c r="M40" s="18"/>
+    </row>
+    <row r="41" spans="2:13">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="17"/>
+      <c r="E41" s="12"/>
+      <c r="H41" s="18"/>
       <c r="I41" s="17"/>
-      <c r="L41" s="18"/>
-    </row>
-    <row r="42" spans="2:12">
+      <c r="J41" s="17"/>
+      <c r="M41" s="18"/>
+    </row>
+    <row r="42" spans="2:13">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="17"/>
+      <c r="E42" s="12"/>
+      <c r="H42" s="18"/>
       <c r="I42" s="17"/>
-      <c r="L42" s="18"/>
-    </row>
-    <row r="43" spans="2:12">
+      <c r="J42" s="17"/>
+      <c r="M42" s="18"/>
+    </row>
+    <row r="43" spans="2:13">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="17"/>
+      <c r="E43" s="12"/>
+      <c r="H43" s="18"/>
       <c r="I43" s="17"/>
-      <c r="L43" s="18"/>
-    </row>
-    <row r="44" spans="2:12">
+      <c r="J43" s="17"/>
+      <c r="M43" s="18"/>
+    </row>
+    <row r="44" spans="2:13">
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="17"/>
+      <c r="E44" s="12"/>
+      <c r="H44" s="18"/>
       <c r="I44" s="17"/>
-      <c r="L44" s="18"/>
-    </row>
-    <row r="45" spans="2:12">
+      <c r="J44" s="17"/>
+      <c r="M44" s="18"/>
+    </row>
+    <row r="45" spans="2:13">
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="17"/>
+      <c r="E45" s="12"/>
+      <c r="H45" s="18"/>
       <c r="I45" s="17"/>
-      <c r="L45" s="18"/>
-    </row>
-    <row r="46" spans="2:12">
+      <c r="J45" s="17"/>
+      <c r="M45" s="18"/>
+    </row>
+    <row r="46" spans="2:13">
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="17"/>
+      <c r="E46" s="12"/>
+      <c r="H46" s="18"/>
       <c r="I46" s="17"/>
-      <c r="L46" s="18"/>
-    </row>
-    <row r="47" spans="2:12">
+      <c r="J46" s="17"/>
+      <c r="M46" s="18"/>
+    </row>
+    <row r="47" spans="2:13">
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="17"/>
+      <c r="E47" s="12"/>
+      <c r="H47" s="18"/>
       <c r="I47" s="17"/>
-      <c r="L47" s="18"/>
-    </row>
-    <row r="48" spans="2:12">
+      <c r="J47" s="17"/>
+      <c r="M47" s="18"/>
+    </row>
+    <row r="48" spans="2:13">
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="17"/>
+      <c r="E48" s="12"/>
+      <c r="H48" s="18"/>
       <c r="I48" s="17"/>
-      <c r="L48" s="18"/>
-    </row>
-    <row r="49" spans="2:12">
+      <c r="J48" s="17"/>
+      <c r="M48" s="18"/>
+    </row>
+    <row r="49" spans="2:13">
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="17"/>
+      <c r="E49" s="12"/>
+      <c r="H49" s="18"/>
       <c r="I49" s="17"/>
-      <c r="L49" s="18"/>
-    </row>
-    <row r="50" spans="2:12">
+      <c r="J49" s="17"/>
+      <c r="M49" s="18"/>
+    </row>
+    <row r="50" spans="2:13">
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="17"/>
+      <c r="E50" s="12"/>
+      <c r="H50" s="18"/>
       <c r="I50" s="17"/>
-      <c r="L50" s="18"/>
-    </row>
-    <row r="51" spans="2:12">
+      <c r="J50" s="17"/>
+      <c r="M50" s="18"/>
+    </row>
+    <row r="51" spans="2:13">
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="17"/>
+      <c r="E51" s="12"/>
+      <c r="H51" s="18"/>
       <c r="I51" s="17"/>
-      <c r="L51" s="18"/>
-    </row>
-    <row r="52" spans="2:12">
+      <c r="J51" s="17"/>
+      <c r="M51" s="18"/>
+    </row>
+    <row r="52" spans="2:13">
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="17"/>
+      <c r="E52" s="12"/>
+      <c r="H52" s="18"/>
       <c r="I52" s="17"/>
-      <c r="L52" s="18"/>
-    </row>
-    <row r="53" spans="2:12">
+      <c r="J52" s="17"/>
+      <c r="M52" s="18"/>
+    </row>
+    <row r="53" spans="2:13">
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="17"/>
+      <c r="E53" s="12"/>
+      <c r="H53" s="18"/>
       <c r="I53" s="17"/>
-      <c r="L53" s="18"/>
-    </row>
-    <row r="54" spans="2:12">
+      <c r="J53" s="17"/>
+      <c r="M53" s="18"/>
+    </row>
+    <row r="54" spans="2:13">
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="17"/>
+      <c r="E54" s="12"/>
+      <c r="H54" s="18"/>
       <c r="I54" s="17"/>
-      <c r="L54" s="18"/>
-    </row>
-    <row r="55" spans="2:12">
+      <c r="J54" s="17"/>
+      <c r="M54" s="18"/>
+    </row>
+    <row r="55" spans="2:13">
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="17"/>
+      <c r="E55" s="12"/>
+      <c r="H55" s="18"/>
       <c r="I55" s="17"/>
-      <c r="L55" s="18"/>
-    </row>
-    <row r="56" spans="2:12">
+      <c r="J55" s="17"/>
+      <c r="M55" s="18"/>
+    </row>
+    <row r="56" spans="2:13">
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="17"/>
+      <c r="E56" s="12"/>
+      <c r="H56" s="18"/>
       <c r="I56" s="17"/>
-      <c r="L56" s="18"/>
-    </row>
-    <row r="57" spans="2:12">
+      <c r="J56" s="17"/>
+      <c r="M56" s="18"/>
+    </row>
+    <row r="57" spans="2:13">
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="17"/>
+      <c r="E57" s="12"/>
+      <c r="H57" s="18"/>
       <c r="I57" s="17"/>
-      <c r="L57" s="18"/>
-    </row>
-    <row r="58" spans="2:12">
+      <c r="J57" s="17"/>
+      <c r="M57" s="18"/>
+    </row>
+    <row r="58" spans="2:13">
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="17"/>
+      <c r="E58" s="12"/>
+      <c r="H58" s="18"/>
       <c r="I58" s="17"/>
-      <c r="L58" s="18"/>
-    </row>
-    <row r="59" spans="2:12">
+      <c r="J58" s="17"/>
+      <c r="M58" s="18"/>
+    </row>
+    <row r="59" spans="2:13">
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="17"/>
+      <c r="E59" s="12"/>
+      <c r="H59" s="18"/>
       <c r="I59" s="17"/>
-      <c r="L59" s="18"/>
-    </row>
-    <row r="60" spans="2:12">
+      <c r="J59" s="17"/>
+      <c r="M59" s="18"/>
+    </row>
+    <row r="60" spans="2:13">
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="17"/>
+      <c r="E60" s="12"/>
+      <c r="H60" s="18"/>
       <c r="I60" s="17"/>
-      <c r="L60" s="18"/>
-    </row>
-    <row r="61" spans="2:12">
+      <c r="J60" s="17"/>
+      <c r="M60" s="18"/>
+    </row>
+    <row r="61" spans="2:13">
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="17"/>
+      <c r="E61" s="12"/>
+      <c r="H61" s="18"/>
       <c r="I61" s="17"/>
-      <c r="L61" s="18"/>
-    </row>
-    <row r="62" spans="2:12">
+      <c r="J61" s="17"/>
+      <c r="M61" s="18"/>
+    </row>
+    <row r="62" spans="2:13">
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="17"/>
+      <c r="E62" s="12"/>
+      <c r="H62" s="18"/>
       <c r="I62" s="17"/>
-      <c r="L62" s="18"/>
-    </row>
-    <row r="63" spans="2:12">
+      <c r="J62" s="17"/>
+      <c r="M62" s="18"/>
+    </row>
+    <row r="63" spans="2:13">
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="17"/>
+      <c r="E63" s="12"/>
+      <c r="H63" s="18"/>
       <c r="I63" s="17"/>
-      <c r="L63" s="18"/>
-    </row>
-    <row r="64" spans="2:12">
+      <c r="J63" s="17"/>
+      <c r="M63" s="18"/>
+    </row>
+    <row r="64" spans="2:13">
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="17"/>
+      <c r="E64" s="12"/>
+      <c r="H64" s="18"/>
       <c r="I64" s="17"/>
-      <c r="L64" s="18"/>
-    </row>
-    <row r="65" spans="2:12">
+      <c r="J64" s="17"/>
+      <c r="M64" s="18"/>
+    </row>
+    <row r="65" spans="2:13">
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="17"/>
+      <c r="E65" s="12"/>
+      <c r="H65" s="18"/>
       <c r="I65" s="17"/>
-      <c r="L65" s="19"/>
-    </row>
-    <row r="66" spans="2:12">
+      <c r="J65" s="17"/>
+      <c r="M65" s="19"/>
+    </row>
+    <row r="66" spans="2:13">
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="17"/>
+      <c r="E66" s="12"/>
+      <c r="H66" s="18"/>
       <c r="I66" s="17"/>
-      <c r="L66" s="19"/>
-    </row>
-    <row r="67" spans="2:12">
+      <c r="J66" s="17"/>
+      <c r="M66" s="19"/>
+    </row>
+    <row r="67" spans="2:13">
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="17"/>
+      <c r="E67" s="12"/>
+      <c r="H67" s="18"/>
       <c r="I67" s="17"/>
-      <c r="L67" s="19"/>
-    </row>
-    <row r="68" spans="2:12">
+      <c r="J67" s="17"/>
+      <c r="M67" s="19"/>
+    </row>
+    <row r="68" spans="2:13">
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="17"/>
+      <c r="E68" s="12"/>
+      <c r="H68" s="18"/>
       <c r="I68" s="17"/>
-      <c r="L68" s="19"/>
-    </row>
-    <row r="69" spans="2:12">
+      <c r="J68" s="17"/>
+      <c r="M68" s="19"/>
+    </row>
+    <row r="69" spans="2:13">
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="17"/>
+      <c r="E69" s="12"/>
+      <c r="H69" s="18"/>
       <c r="I69" s="17"/>
-      <c r="L69" s="19"/>
-    </row>
-    <row r="70" spans="2:12">
+      <c r="J69" s="17"/>
+      <c r="M69" s="19"/>
+    </row>
+    <row r="70" spans="2:13">
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="17"/>
+      <c r="E70" s="12"/>
+      <c r="H70" s="18"/>
       <c r="I70" s="17"/>
-      <c r="L70" s="19"/>
-    </row>
-    <row r="71" spans="2:12">
+      <c r="J70" s="17"/>
+      <c r="M70" s="19"/>
+    </row>
+    <row r="71" spans="2:13">
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="17"/>
+      <c r="E71" s="12"/>
+      <c r="H71" s="18"/>
       <c r="I71" s="17"/>
-      <c r="L71" s="19"/>
-    </row>
-    <row r="72" spans="2:12">
+      <c r="J71" s="17"/>
+      <c r="M71" s="19"/>
+    </row>
+    <row r="72" spans="2:13">
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="17"/>
+      <c r="E72" s="12"/>
+      <c r="H72" s="18"/>
       <c r="I72" s="17"/>
-      <c r="L72" s="19"/>
-    </row>
-    <row r="73" spans="2:12">
+      <c r="J72" s="17"/>
+      <c r="M72" s="19"/>
+    </row>
+    <row r="73" spans="2:13">
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="17"/>
+      <c r="E73" s="12"/>
+      <c r="H73" s="18"/>
       <c r="I73" s="17"/>
-      <c r="L73" s="19"/>
-    </row>
-    <row r="74" spans="2:12">
+      <c r="J73" s="17"/>
+      <c r="M73" s="19"/>
+    </row>
+    <row r="74" spans="2:13">
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="17"/>
+      <c r="E74" s="12"/>
+      <c r="H74" s="18"/>
       <c r="I74" s="17"/>
-      <c r="L74" s="19"/>
-    </row>
-    <row r="75" spans="2:12">
+      <c r="J74" s="17"/>
+      <c r="M74" s="19"/>
+    </row>
+    <row r="75" spans="2:13">
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="17"/>
+      <c r="E75" s="12"/>
+      <c r="H75" s="18"/>
       <c r="I75" s="17"/>
-      <c r="L75" s="19"/>
-    </row>
-    <row r="76" spans="2:12">
+      <c r="J75" s="17"/>
+      <c r="M75" s="19"/>
+    </row>
+    <row r="76" spans="2:13">
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="17"/>
+      <c r="E76" s="12"/>
+      <c r="H76" s="18"/>
       <c r="I76" s="17"/>
-      <c r="L76" s="19"/>
-    </row>
-    <row r="77" spans="2:12">
+      <c r="J76" s="17"/>
+      <c r="M76" s="19"/>
+    </row>
+    <row r="77" spans="2:13">
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="17"/>
+      <c r="E77" s="12"/>
+      <c r="H77" s="18"/>
       <c r="I77" s="17"/>
-      <c r="L77" s="19"/>
-    </row>
-    <row r="78" spans="2:12">
+      <c r="J77" s="17"/>
+      <c r="M77" s="19"/>
+    </row>
+    <row r="78" spans="2:13">
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="17"/>
+      <c r="E78" s="12"/>
+      <c r="H78" s="18"/>
       <c r="I78" s="17"/>
-      <c r="L78" s="19"/>
-    </row>
-    <row r="79" spans="2:12">
+      <c r="J78" s="17"/>
+      <c r="M78" s="19"/>
+    </row>
+    <row r="79" spans="2:13">
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="17"/>
+      <c r="E79" s="12"/>
+      <c r="H79" s="18"/>
       <c r="I79" s="17"/>
-      <c r="L79" s="19"/>
-    </row>
-    <row r="80" spans="2:12">
+      <c r="J79" s="17"/>
+      <c r="M79" s="19"/>
+    </row>
+    <row r="80" spans="2:13">
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="17"/>
+      <c r="E80" s="12"/>
+      <c r="H80" s="18"/>
       <c r="I80" s="17"/>
-      <c r="L80" s="19"/>
-    </row>
-    <row r="81" spans="2:12">
+      <c r="J80" s="17"/>
+      <c r="M80" s="19"/>
+    </row>
+    <row r="81" spans="2:13">
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="17"/>
+      <c r="E81" s="12"/>
+      <c r="H81" s="18"/>
       <c r="I81" s="17"/>
-      <c r="L81" s="19"/>
-    </row>
-    <row r="82" spans="2:12">
+      <c r="J81" s="17"/>
+      <c r="M81" s="19"/>
+    </row>
+    <row r="82" spans="2:13">
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="17"/>
+      <c r="E82" s="12"/>
+      <c r="H82" s="18"/>
       <c r="I82" s="17"/>
-      <c r="L82" s="19"/>
-    </row>
-    <row r="83" spans="2:12">
+      <c r="J82" s="17"/>
+      <c r="M82" s="19"/>
+    </row>
+    <row r="83" spans="2:13">
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="17"/>
+      <c r="E83" s="12"/>
+      <c r="H83" s="18"/>
       <c r="I83" s="17"/>
-      <c r="L83" s="19"/>
-    </row>
-    <row r="84" spans="2:12">
+      <c r="J83" s="17"/>
+      <c r="M83" s="19"/>
+    </row>
+    <row r="84" spans="2:13">
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="17"/>
+      <c r="E84" s="12"/>
+      <c r="H84" s="18"/>
       <c r="I84" s="17"/>
-      <c r="L84" s="18"/>
-    </row>
-    <row r="85" spans="2:12">
+      <c r="J84" s="17"/>
+      <c r="M84" s="18"/>
+    </row>
+    <row r="85" spans="2:13">
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="17"/>
+      <c r="E85" s="12"/>
+      <c r="H85" s="18"/>
       <c r="I85" s="17"/>
-      <c r="L85" s="18"/>
-    </row>
-    <row r="86" spans="2:12">
+      <c r="J85" s="17"/>
+      <c r="M85" s="18"/>
+    </row>
+    <row r="86" spans="2:13">
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="17"/>
+      <c r="E86" s="12"/>
+      <c r="H86" s="18"/>
       <c r="I86" s="17"/>
-      <c r="L86" s="18"/>
-    </row>
-    <row r="87" spans="2:12">
+      <c r="J86" s="17"/>
+      <c r="M86" s="18"/>
+    </row>
+    <row r="87" spans="2:13">
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="17"/>
+      <c r="E87" s="12"/>
+      <c r="H87" s="18"/>
       <c r="I87" s="17"/>
-      <c r="L87" s="18"/>
-    </row>
-    <row r="88" spans="2:12">
+      <c r="J87" s="17"/>
+      <c r="M87" s="18"/>
+    </row>
+    <row r="88" spans="2:13">
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="17"/>
+      <c r="E88" s="12"/>
+      <c r="H88" s="18"/>
       <c r="I88" s="17"/>
-      <c r="L88" s="18"/>
-    </row>
-    <row r="89" spans="2:12">
+      <c r="J88" s="17"/>
+      <c r="M88" s="18"/>
+    </row>
+    <row r="89" spans="2:13">
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="17"/>
+      <c r="E89" s="12"/>
+      <c r="H89" s="18"/>
       <c r="I89" s="17"/>
-      <c r="L89" s="18"/>
-    </row>
-    <row r="90" spans="2:12">
+      <c r="J89" s="17"/>
+      <c r="M89" s="18"/>
+    </row>
+    <row r="90" spans="2:13">
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="17"/>
+      <c r="E90" s="12"/>
+      <c r="H90" s="18"/>
       <c r="I90" s="17"/>
-      <c r="L90" s="18"/>
-    </row>
-    <row r="91" spans="2:12">
+      <c r="J90" s="17"/>
+      <c r="M90" s="18"/>
+    </row>
+    <row r="91" spans="2:13">
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="17"/>
+      <c r="E91" s="12"/>
+      <c r="H91" s="18"/>
       <c r="I91" s="17"/>
-      <c r="L91" s="18"/>
-    </row>
-    <row r="92" spans="2:12">
+      <c r="J91" s="17"/>
+      <c r="M91" s="18"/>
+    </row>
+    <row r="92" spans="2:13">
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="17"/>
+      <c r="E92" s="12"/>
+      <c r="H92" s="18"/>
       <c r="I92" s="17"/>
-      <c r="L92" s="18"/>
-    </row>
-    <row r="93" spans="2:12">
+      <c r="J92" s="17"/>
+      <c r="M92" s="18"/>
+    </row>
+    <row r="93" spans="2:13">
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="17"/>
+      <c r="E93" s="12"/>
+      <c r="H93" s="18"/>
       <c r="I93" s="17"/>
-      <c r="L93" s="18"/>
-    </row>
-    <row r="94" spans="2:12">
+      <c r="J93" s="17"/>
+      <c r="M93" s="18"/>
+    </row>
+    <row r="94" spans="2:13">
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="17"/>
+      <c r="E94" s="12"/>
+      <c r="H94" s="18"/>
       <c r="I94" s="17"/>
-      <c r="L94" s="18"/>
-    </row>
-    <row r="95" spans="2:12">
+      <c r="J94" s="17"/>
+      <c r="M94" s="18"/>
+    </row>
+    <row r="95" spans="2:13">
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="17"/>
+      <c r="E95" s="12"/>
+      <c r="H95" s="18"/>
       <c r="I95" s="17"/>
-      <c r="L95" s="18"/>
-    </row>
-    <row r="96" spans="2:12">
+      <c r="J95" s="17"/>
+      <c r="M95" s="18"/>
+    </row>
+    <row r="96" spans="2:13">
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="17"/>
+      <c r="E96" s="12"/>
+      <c r="H96" s="18"/>
       <c r="I96" s="17"/>
-      <c r="L96" s="18"/>
-    </row>
-    <row r="97" spans="2:12">
+      <c r="J96" s="17"/>
+      <c r="M96" s="18"/>
+    </row>
+    <row r="97" spans="2:13">
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="17"/>
+      <c r="E97" s="12"/>
+      <c r="H97" s="18"/>
       <c r="I97" s="17"/>
-      <c r="L97" s="18"/>
-    </row>
-    <row r="98" spans="2:12">
+      <c r="J97" s="17"/>
+      <c r="M97" s="18"/>
+    </row>
+    <row r="98" spans="2:13">
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="17"/>
+      <c r="E98" s="12"/>
+      <c r="H98" s="18"/>
       <c r="I98" s="17"/>
-      <c r="L98" s="18"/>
-    </row>
-    <row r="99" spans="2:12">
+      <c r="J98" s="17"/>
+      <c r="M98" s="18"/>
+    </row>
+    <row r="99" spans="2:13">
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="17"/>
+      <c r="E99" s="12"/>
+      <c r="H99" s="18"/>
       <c r="I99" s="17"/>
-      <c r="L99" s="18"/>
-    </row>
-    <row r="100" spans="2:12">
+      <c r="J99" s="17"/>
+      <c r="M99" s="18"/>
+    </row>
+    <row r="100" spans="2:13">
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="17"/>
+      <c r="E100" s="12"/>
+      <c r="H100" s="18"/>
       <c r="I100" s="17"/>
-      <c r="L100" s="18"/>
-    </row>
-    <row r="101" spans="2:12">
+      <c r="J100" s="17"/>
+      <c r="M100" s="18"/>
+    </row>
+    <row r="101" spans="2:13">
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="17"/>
+      <c r="E101" s="12"/>
+      <c r="H101" s="18"/>
       <c r="I101" s="17"/>
-      <c r="L101" s="18"/>
-    </row>
-    <row r="102" spans="2:12">
+      <c r="J101" s="17"/>
+      <c r="M101" s="18"/>
+    </row>
+    <row r="102" spans="2:13">
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="17"/>
+      <c r="E102" s="12"/>
+      <c r="H102" s="18"/>
       <c r="I102" s="17"/>
-      <c r="L102" s="18"/>
-    </row>
-    <row r="103" spans="2:12">
+      <c r="J102" s="17"/>
+      <c r="M102" s="18"/>
+    </row>
+    <row r="103" spans="2:13">
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
       <c r="D103" s="12"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="17"/>
+      <c r="E103" s="12"/>
+      <c r="H103" s="18"/>
       <c r="I103" s="17"/>
-      <c r="L103" s="18"/>
-    </row>
-    <row r="104" spans="2:12">
+      <c r="J103" s="17"/>
+      <c r="M103" s="18"/>
+    </row>
+    <row r="104" spans="2:13">
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="20"/>
+      <c r="E104" s="12"/>
+      <c r="H104" s="18"/>
       <c r="I104" s="20"/>
-      <c r="L104" s="18"/>
-    </row>
-    <row r="105" spans="2:12">
+      <c r="J104" s="20"/>
+      <c r="M104" s="18"/>
+    </row>
+    <row r="105" spans="2:13">
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="17"/>
+      <c r="E105" s="12"/>
+      <c r="H105" s="18"/>
       <c r="I105" s="17"/>
-      <c r="L105" s="18"/>
-    </row>
-    <row r="106" spans="2:12">
+      <c r="J105" s="17"/>
+      <c r="M105" s="18"/>
+    </row>
+    <row r="106" spans="2:13">
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="17"/>
+      <c r="E106" s="12"/>
+      <c r="H106" s="18"/>
       <c r="I106" s="17"/>
-      <c r="L106" s="18"/>
-    </row>
-    <row r="107" spans="2:12">
+      <c r="J106" s="17"/>
+      <c r="M106" s="18"/>
+    </row>
+    <row r="107" spans="2:13">
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="17"/>
+      <c r="E107" s="12"/>
+      <c r="H107" s="18"/>
       <c r="I107" s="17"/>
-      <c r="L107" s="18"/>
-    </row>
-    <row r="108" spans="2:12">
+      <c r="J107" s="17"/>
+      <c r="M107" s="18"/>
+    </row>
+    <row r="108" spans="2:13">
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="17"/>
+      <c r="E108" s="12"/>
+      <c r="H108" s="18"/>
       <c r="I108" s="17"/>
-      <c r="L108" s="18"/>
-    </row>
-    <row r="109" spans="2:12">
+      <c r="J108" s="17"/>
+      <c r="M108" s="18"/>
+    </row>
+    <row r="109" spans="2:13">
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="17"/>
+      <c r="E109" s="12"/>
+      <c r="H109" s="18"/>
       <c r="I109" s="17"/>
-      <c r="L109" s="18"/>
-    </row>
-    <row r="110" spans="2:12">
+      <c r="J109" s="17"/>
+      <c r="M109" s="18"/>
+    </row>
+    <row r="110" spans="2:13">
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="17"/>
+      <c r="E110" s="12"/>
+      <c r="H110" s="18"/>
       <c r="I110" s="17"/>
-      <c r="L110" s="18"/>
-    </row>
-    <row r="111" spans="2:12">
+      <c r="J110" s="17"/>
+      <c r="M110" s="18"/>
+    </row>
+    <row r="111" spans="2:13">
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="17"/>
+      <c r="E111" s="12"/>
+      <c r="H111" s="18"/>
       <c r="I111" s="17"/>
-      <c r="L111" s="18"/>
-    </row>
-    <row r="112" spans="2:12">
+      <c r="J111" s="17"/>
+      <c r="M111" s="18"/>
+    </row>
+    <row r="112" spans="2:13">
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="17"/>
+      <c r="E112" s="12"/>
+      <c r="H112" s="18"/>
       <c r="I112" s="17"/>
-      <c r="L112" s="18"/>
-    </row>
-    <row r="113" spans="2:12">
+      <c r="J112" s="17"/>
+      <c r="M112" s="18"/>
+    </row>
+    <row r="113" spans="2:13">
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
       <c r="D113" s="12"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="17"/>
+      <c r="E113" s="12"/>
+      <c r="H113" s="18"/>
       <c r="I113" s="17"/>
-      <c r="L113" s="18"/>
-    </row>
-    <row r="114" spans="2:12">
+      <c r="J113" s="17"/>
+      <c r="M113" s="18"/>
+    </row>
+    <row r="114" spans="2:13">
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
       <c r="D114" s="12"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="17"/>
+      <c r="E114" s="12"/>
+      <c r="H114" s="18"/>
       <c r="I114" s="17"/>
-      <c r="L114" s="18"/>
-    </row>
-    <row r="115" spans="2:12">
+      <c r="J114" s="17"/>
+      <c r="M114" s="18"/>
+    </row>
+    <row r="115" spans="2:13">
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="17"/>
+      <c r="E115" s="12"/>
+      <c r="H115" s="18"/>
       <c r="I115" s="17"/>
-      <c r="L115" s="18"/>
-    </row>
-    <row r="116" spans="2:12">
+      <c r="J115" s="17"/>
+      <c r="M115" s="18"/>
+    </row>
+    <row r="116" spans="2:13">
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
       <c r="D116" s="12"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="17"/>
+      <c r="E116" s="12"/>
+      <c r="H116" s="18"/>
       <c r="I116" s="17"/>
-      <c r="L116" s="18"/>
-    </row>
-    <row r="117" spans="2:12">
+      <c r="J116" s="17"/>
+      <c r="M116" s="18"/>
+    </row>
+    <row r="117" spans="2:13">
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
       <c r="D117" s="12"/>
-      <c r="G117" s="18"/>
-      <c r="H117" s="17"/>
+      <c r="E117" s="12"/>
+      <c r="H117" s="18"/>
       <c r="I117" s="17"/>
-      <c r="L117" s="18"/>
-    </row>
-    <row r="118" spans="2:12">
+      <c r="J117" s="17"/>
+      <c r="M117" s="18"/>
+    </row>
+    <row r="118" spans="2:13">
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
       <c r="D118" s="12"/>
-      <c r="G118" s="18"/>
-      <c r="H118" s="17"/>
+      <c r="E118" s="12"/>
+      <c r="H118" s="18"/>
       <c r="I118" s="17"/>
-      <c r="L118" s="18"/>
-    </row>
-    <row r="119" spans="2:12">
+      <c r="J118" s="17"/>
+      <c r="M118" s="18"/>
+    </row>
+    <row r="119" spans="2:13">
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
       <c r="D119" s="12"/>
-      <c r="G119" s="18"/>
-      <c r="H119" s="17"/>
+      <c r="E119" s="12"/>
+      <c r="H119" s="18"/>
       <c r="I119" s="17"/>
-      <c r="L119" s="18"/>
-    </row>
-    <row r="120" spans="2:12">
+      <c r="J119" s="17"/>
+      <c r="M119" s="18"/>
+    </row>
+    <row r="120" spans="2:13">
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
       <c r="D120" s="12"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="17"/>
+      <c r="E120" s="12"/>
+      <c r="H120" s="18"/>
       <c r="I120" s="17"/>
-      <c r="L120" s="18"/>
-    </row>
-    <row r="121" spans="2:12">
+      <c r="J120" s="17"/>
+      <c r="M120" s="18"/>
+    </row>
+    <row r="121" spans="2:13">
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
       <c r="D121" s="12"/>
-      <c r="G121" s="18"/>
-      <c r="H121" s="17"/>
+      <c r="E121" s="12"/>
+      <c r="H121" s="18"/>
       <c r="I121" s="17"/>
-      <c r="L121" s="18"/>
-    </row>
-    <row r="122" spans="2:12">
+      <c r="J121" s="17"/>
+      <c r="M121" s="18"/>
+    </row>
+    <row r="122" spans="2:13">
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
       <c r="D122" s="12"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="17"/>
+      <c r="E122" s="12"/>
+      <c r="H122" s="18"/>
       <c r="I122" s="17"/>
-      <c r="L122" s="18"/>
-    </row>
-    <row r="123" spans="2:12">
+      <c r="J122" s="17"/>
+      <c r="M122" s="18"/>
+    </row>
+    <row r="123" spans="2:13">
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
       <c r="D123" s="12"/>
-      <c r="G123" s="18"/>
-      <c r="H123" s="17"/>
+      <c r="E123" s="12"/>
+      <c r="H123" s="18"/>
       <c r="I123" s="17"/>
-      <c r="L123" s="18"/>
-    </row>
-    <row r="124" spans="2:12">
+      <c r="J123" s="17"/>
+      <c r="M123" s="18"/>
+    </row>
+    <row r="124" spans="2:13">
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="17"/>
+      <c r="E124" s="12"/>
+      <c r="H124" s="18"/>
       <c r="I124" s="17"/>
-      <c r="L124" s="18"/>
-    </row>
-    <row r="125" spans="2:12">
+      <c r="J124" s="17"/>
+      <c r="M124" s="18"/>
+    </row>
+    <row r="125" spans="2:13">
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
       <c r="D125" s="12"/>
-      <c r="G125" s="18"/>
-      <c r="H125" s="17"/>
+      <c r="E125" s="12"/>
+      <c r="H125" s="18"/>
       <c r="I125" s="17"/>
-      <c r="L125" s="18"/>
-    </row>
-    <row r="126" spans="2:12">
+      <c r="J125" s="17"/>
+      <c r="M125" s="18"/>
+    </row>
+    <row r="126" spans="2:13">
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
       <c r="D126" s="12"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="17"/>
+      <c r="E126" s="12"/>
+      <c r="H126" s="18"/>
       <c r="I126" s="17"/>
-      <c r="L126" s="18"/>
-    </row>
-    <row r="127" spans="2:12">
+      <c r="J126" s="17"/>
+      <c r="M126" s="18"/>
+    </row>
+    <row r="127" spans="2:13">
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
       <c r="D127" s="12"/>
-      <c r="G127" s="18"/>
-      <c r="H127" s="17"/>
+      <c r="E127" s="12"/>
+      <c r="H127" s="18"/>
       <c r="I127" s="17"/>
-      <c r="L127" s="18"/>
-    </row>
-    <row r="128" spans="2:12">
+      <c r="J127" s="17"/>
+      <c r="M127" s="18"/>
+    </row>
+    <row r="128" spans="2:13">
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
-      <c r="G128" s="18"/>
-      <c r="H128" s="17"/>
+      <c r="E128" s="12"/>
+      <c r="H128" s="18"/>
       <c r="I128" s="17"/>
-      <c r="L128" s="18"/>
-    </row>
-    <row r="129" spans="2:12">
+      <c r="J128" s="17"/>
+      <c r="M128" s="18"/>
+    </row>
+    <row r="129" spans="2:13">
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
-      <c r="G129" s="18"/>
-      <c r="H129" s="17"/>
+      <c r="E129" s="12"/>
+      <c r="H129" s="18"/>
       <c r="I129" s="17"/>
-      <c r="L129" s="18"/>
-    </row>
-    <row r="130" spans="2:12">
+      <c r="J129" s="17"/>
+      <c r="M129" s="18"/>
+    </row>
+    <row r="130" spans="2:13">
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
       <c r="D130" s="12"/>
-      <c r="G130" s="18"/>
-      <c r="H130" s="17"/>
+      <c r="E130" s="12"/>
+      <c r="H130" s="18"/>
       <c r="I130" s="17"/>
-      <c r="L130" s="18"/>
-    </row>
-    <row r="131" spans="2:12">
+      <c r="J130" s="17"/>
+      <c r="M130" s="18"/>
+    </row>
+    <row r="131" spans="2:13">
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
       <c r="D131" s="12"/>
-      <c r="G131" s="18"/>
-      <c r="H131" s="17"/>
+      <c r="E131" s="12"/>
+      <c r="H131" s="18"/>
       <c r="I131" s="17"/>
-      <c r="L131" s="18"/>
-    </row>
-    <row r="132" spans="2:12">
+      <c r="J131" s="17"/>
+      <c r="M131" s="18"/>
+    </row>
+    <row r="132" spans="2:13">
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
       <c r="D132" s="12"/>
-      <c r="G132" s="18"/>
-      <c r="H132" s="17"/>
+      <c r="E132" s="12"/>
+      <c r="H132" s="18"/>
       <c r="I132" s="17"/>
-      <c r="L132" s="18"/>
-    </row>
-    <row r="133" spans="2:12">
+      <c r="J132" s="17"/>
+      <c r="M132" s="18"/>
+    </row>
+    <row r="133" spans="2:13">
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
       <c r="D133" s="12"/>
-      <c r="G133" s="18"/>
-      <c r="H133" s="17"/>
+      <c r="E133" s="12"/>
+      <c r="H133" s="18"/>
       <c r="I133" s="17"/>
-      <c r="L133" s="18"/>
-    </row>
-    <row r="134" spans="2:12">
+      <c r="J133" s="17"/>
+      <c r="M133" s="18"/>
+    </row>
+    <row r="134" spans="2:13">
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
       <c r="D134" s="12"/>
-      <c r="G134" s="18"/>
-      <c r="H134" s="20"/>
+      <c r="E134" s="12"/>
+      <c r="H134" s="18"/>
       <c r="I134" s="20"/>
-      <c r="L134" s="18"/>
-    </row>
-    <row r="135" spans="2:12">
+      <c r="J134" s="20"/>
+      <c r="M134" s="18"/>
+    </row>
+    <row r="135" spans="2:13">
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
       <c r="D135" s="12"/>
-      <c r="E135" s="16"/>
+      <c r="E135" s="12"/>
       <c r="F135" s="16"/>
-      <c r="G135" s="18"/>
-      <c r="H135" s="17"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="18"/>
       <c r="I135" s="17"/>
-      <c r="L135" s="18"/>
-    </row>
-    <row r="136" spans="2:12">
+      <c r="J135" s="17"/>
+      <c r="M135" s="18"/>
+    </row>
+    <row r="136" spans="2:13">
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
       <c r="D136" s="12"/>
-      <c r="G136" s="18"/>
-      <c r="H136" s="17"/>
+      <c r="E136" s="12"/>
+      <c r="H136" s="18"/>
       <c r="I136" s="17"/>
-      <c r="L136" s="18"/>
-    </row>
-    <row r="137" spans="2:12">
+      <c r="J136" s="17"/>
+      <c r="M136" s="18"/>
+    </row>
+    <row r="137" spans="2:13">
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
       <c r="D137" s="12"/>
-      <c r="G137" s="18"/>
-      <c r="H137" s="17"/>
+      <c r="E137" s="12"/>
+      <c r="H137" s="18"/>
       <c r="I137" s="17"/>
-      <c r="L137" s="18"/>
-    </row>
-    <row r="138" spans="2:12">
+      <c r="J137" s="17"/>
+      <c r="M137" s="18"/>
+    </row>
+    <row r="138" spans="2:13">
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
       <c r="D138" s="12"/>
-      <c r="G138" s="18"/>
-      <c r="H138" s="17"/>
+      <c r="E138" s="12"/>
+      <c r="H138" s="18"/>
       <c r="I138" s="17"/>
-      <c r="L138" s="18"/>
-    </row>
-    <row r="139" spans="2:12">
+      <c r="J138" s="17"/>
+      <c r="M138" s="18"/>
+    </row>
+    <row r="139" spans="2:13">
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
       <c r="D139" s="12"/>
-      <c r="G139" s="18"/>
-      <c r="H139" s="17"/>
+      <c r="E139" s="12"/>
+      <c r="H139" s="18"/>
       <c r="I139" s="17"/>
-      <c r="L139" s="18"/>
-    </row>
-    <row r="140" spans="2:12">
+      <c r="J139" s="17"/>
+      <c r="M139" s="18"/>
+    </row>
+    <row r="140" spans="2:13">
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="17"/>
+      <c r="E140" s="12"/>
+      <c r="H140" s="18"/>
       <c r="I140" s="17"/>
-      <c r="L140" s="18"/>
-    </row>
-    <row r="141" spans="2:12">
+      <c r="J140" s="17"/>
+      <c r="M140" s="18"/>
+    </row>
+    <row r="141" spans="2:13">
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
       <c r="D141" s="12"/>
-      <c r="G141" s="18"/>
-      <c r="H141" s="17"/>
+      <c r="E141" s="12"/>
+      <c r="H141" s="18"/>
       <c r="I141" s="17"/>
-      <c r="L141" s="18"/>
-    </row>
-    <row r="142" spans="2:12">
+      <c r="J141" s="17"/>
+      <c r="M141" s="18"/>
+    </row>
+    <row r="142" spans="2:13">
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
-      <c r="G142" s="18"/>
-      <c r="H142" s="17"/>
+      <c r="E142" s="12"/>
+      <c r="H142" s="18"/>
       <c r="I142" s="17"/>
-      <c r="L142" s="18"/>
-    </row>
-    <row r="143" spans="2:12">
+      <c r="J142" s="17"/>
+      <c r="M142" s="18"/>
+    </row>
+    <row r="143" spans="2:13">
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
       <c r="D143" s="12"/>
-      <c r="G143" s="18"/>
-      <c r="H143" s="17"/>
+      <c r="E143" s="12"/>
+      <c r="H143" s="18"/>
       <c r="I143" s="17"/>
-      <c r="L143" s="18"/>
-    </row>
-    <row r="144" spans="2:12">
+      <c r="J143" s="17"/>
+      <c r="M143" s="18"/>
+    </row>
+    <row r="144" spans="2:13">
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
-      <c r="G144" s="18"/>
-      <c r="H144" s="17"/>
+      <c r="E144" s="12"/>
+      <c r="H144" s="18"/>
       <c r="I144" s="17"/>
-      <c r="L144" s="18"/>
-    </row>
-    <row r="145" spans="2:12">
+      <c r="J144" s="17"/>
+      <c r="M144" s="18"/>
+    </row>
+    <row r="145" spans="2:13">
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
       <c r="D145" s="12"/>
-      <c r="G145" s="18"/>
-      <c r="H145" s="17"/>
+      <c r="E145" s="12"/>
+      <c r="H145" s="18"/>
       <c r="I145" s="17"/>
-      <c r="L145" s="18"/>
-    </row>
-    <row r="146" spans="2:12">
+      <c r="J145" s="17"/>
+      <c r="M145" s="18"/>
+    </row>
+    <row r="146" spans="2:13">
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
-      <c r="G146" s="18"/>
-      <c r="H146" s="17"/>
+      <c r="E146" s="12"/>
+      <c r="H146" s="18"/>
       <c r="I146" s="17"/>
-      <c r="L146" s="18"/>
-    </row>
-    <row r="147" spans="2:12">
+      <c r="J146" s="17"/>
+      <c r="M146" s="18"/>
+    </row>
+    <row r="147" spans="2:13">
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
       <c r="D147" s="12"/>
-      <c r="G147" s="18"/>
-      <c r="H147" s="17"/>
+      <c r="E147" s="12"/>
+      <c r="H147" s="18"/>
       <c r="I147" s="17"/>
-      <c r="L147" s="18"/>
-    </row>
-    <row r="148" spans="2:12">
+      <c r="J147" s="17"/>
+      <c r="M147" s="18"/>
+    </row>
+    <row r="148" spans="2:13">
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
-      <c r="G148" s="18"/>
-      <c r="H148" s="17"/>
+      <c r="E148" s="12"/>
+      <c r="H148" s="18"/>
       <c r="I148" s="17"/>
-      <c r="L148" s="18"/>
-    </row>
-    <row r="149" spans="2:12">
+      <c r="J148" s="17"/>
+      <c r="M148" s="18"/>
+    </row>
+    <row r="149" spans="2:13">
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
       <c r="D149" s="12"/>
-      <c r="G149" s="18"/>
-      <c r="H149" s="17"/>
+      <c r="E149" s="12"/>
+      <c r="H149" s="18"/>
       <c r="I149" s="17"/>
-      <c r="L149" s="18"/>
-    </row>
-    <row r="150" spans="2:12">
+      <c r="J149" s="17"/>
+      <c r="M149" s="18"/>
+    </row>
+    <row r="150" spans="2:13">
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
-      <c r="G150" s="18"/>
-      <c r="H150" s="17"/>
+      <c r="E150" s="12"/>
+      <c r="H150" s="18"/>
       <c r="I150" s="17"/>
-      <c r="L150" s="18"/>
-    </row>
-    <row r="151" spans="2:12">
+      <c r="J150" s="17"/>
+      <c r="M150" s="18"/>
+    </row>
+    <row r="151" spans="2:13">
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
       <c r="D151" s="12"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="17"/>
+      <c r="E151" s="12"/>
+      <c r="H151" s="18"/>
       <c r="I151" s="17"/>
-      <c r="L151" s="18"/>
-    </row>
-    <row r="152" spans="2:12">
+      <c r="J151" s="17"/>
+      <c r="M151" s="18"/>
+    </row>
+    <row r="152" spans="2:13">
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
-      <c r="G152" s="18"/>
-      <c r="H152" s="17"/>
+      <c r="E152" s="12"/>
+      <c r="H152" s="18"/>
       <c r="I152" s="17"/>
-      <c r="L152" s="18"/>
-    </row>
-    <row r="153" spans="2:12">
+      <c r="J152" s="17"/>
+      <c r="M152" s="18"/>
+    </row>
+    <row r="153" spans="2:13">
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
-      <c r="G153" s="18"/>
-      <c r="H153" s="17"/>
+      <c r="E153" s="12"/>
+      <c r="H153" s="18"/>
       <c r="I153" s="17"/>
-      <c r="L153" s="18"/>
-    </row>
-    <row r="154" spans="2:12">
+      <c r="J153" s="17"/>
+      <c r="M153" s="18"/>
+    </row>
+    <row r="154" spans="2:13">
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
       <c r="D154" s="12"/>
-      <c r="G154" s="18"/>
-      <c r="H154" s="17"/>
+      <c r="E154" s="12"/>
+      <c r="H154" s="18"/>
       <c r="I154" s="17"/>
-      <c r="L154" s="18"/>
-    </row>
-    <row r="155" spans="2:12">
+      <c r="J154" s="17"/>
+      <c r="M154" s="18"/>
+    </row>
+    <row r="155" spans="2:13">
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
       <c r="D155" s="12"/>
-      <c r="G155" s="18"/>
-      <c r="H155" s="17"/>
+      <c r="E155" s="12"/>
+      <c r="H155" s="18"/>
       <c r="I155" s="17"/>
-      <c r="L155" s="18"/>
-    </row>
-    <row r="156" spans="2:12">
+      <c r="J155" s="17"/>
+      <c r="M155" s="18"/>
+    </row>
+    <row r="156" spans="2:13">
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
       <c r="D156" s="12"/>
-      <c r="G156" s="18"/>
-      <c r="H156" s="17"/>
+      <c r="E156" s="12"/>
+      <c r="H156" s="18"/>
       <c r="I156" s="17"/>
-      <c r="L156" s="18"/>
-    </row>
-    <row r="157" spans="2:12">
+      <c r="J156" s="17"/>
+      <c r="M156" s="18"/>
+    </row>
+    <row r="157" spans="2:13">
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
       <c r="D157" s="12"/>
-      <c r="G157" s="18"/>
-      <c r="H157" s="17"/>
+      <c r="E157" s="12"/>
+      <c r="H157" s="18"/>
       <c r="I157" s="17"/>
-      <c r="L157" s="18"/>
-    </row>
-    <row r="158" spans="2:12">
+      <c r="J157" s="17"/>
+      <c r="M157" s="18"/>
+    </row>
+    <row r="158" spans="2:13">
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
       <c r="D158" s="12"/>
-      <c r="G158" s="18"/>
-      <c r="H158" s="17"/>
+      <c r="E158" s="12"/>
+      <c r="H158" s="18"/>
       <c r="I158" s="17"/>
-      <c r="L158" s="18"/>
-    </row>
-    <row r="159" spans="2:12">
+      <c r="J158" s="17"/>
+      <c r="M158" s="18"/>
+    </row>
+    <row r="159" spans="2:13">
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
       <c r="D159" s="12"/>
-      <c r="G159" s="18"/>
-      <c r="H159" s="17"/>
+      <c r="E159" s="12"/>
+      <c r="H159" s="18"/>
       <c r="I159" s="17"/>
-      <c r="L159" s="18"/>
-    </row>
-    <row r="160" spans="2:12">
+      <c r="J159" s="17"/>
+      <c r="M159" s="18"/>
+    </row>
+    <row r="160" spans="2:13">
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
       <c r="D160" s="12"/>
-      <c r="G160" s="18"/>
-      <c r="H160" s="17"/>
+      <c r="E160" s="12"/>
+      <c r="H160" s="18"/>
       <c r="I160" s="17"/>
-      <c r="L160" s="18"/>
-    </row>
-    <row r="161" spans="2:12">
+      <c r="J160" s="17"/>
+      <c r="M160" s="18"/>
+    </row>
+    <row r="161" spans="2:13">
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
       <c r="D161" s="12"/>
-      <c r="G161" s="18"/>
-      <c r="H161" s="17"/>
+      <c r="E161" s="12"/>
+      <c r="H161" s="18"/>
       <c r="I161" s="17"/>
-      <c r="L161" s="18"/>
-    </row>
-    <row r="162" spans="2:12">
+      <c r="J161" s="17"/>
+      <c r="M161" s="18"/>
+    </row>
+    <row r="162" spans="2:13">
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
       <c r="D162" s="12"/>
-      <c r="G162" s="18"/>
-      <c r="H162" s="17"/>
+      <c r="E162" s="12"/>
+      <c r="H162" s="18"/>
       <c r="I162" s="17"/>
-      <c r="L162" s="18"/>
-    </row>
-    <row r="163" spans="2:12">
+      <c r="J162" s="17"/>
+      <c r="M162" s="18"/>
+    </row>
+    <row r="163" spans="2:13">
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
       <c r="D163" s="12"/>
-      <c r="G163" s="18"/>
-      <c r="H163" s="17"/>
+      <c r="E163" s="12"/>
+      <c r="H163" s="18"/>
       <c r="I163" s="17"/>
-      <c r="L163" s="18"/>
-    </row>
-    <row r="164" spans="2:12">
+      <c r="J163" s="17"/>
+      <c r="M163" s="18"/>
+    </row>
+    <row r="164" spans="2:13">
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
       <c r="D164" s="12"/>
-      <c r="G164" s="18"/>
-      <c r="H164" s="17"/>
+      <c r="E164" s="12"/>
+      <c r="H164" s="18"/>
       <c r="I164" s="17"/>
-      <c r="L164" s="18"/>
-    </row>
-    <row r="165" spans="2:12">
+      <c r="J164" s="17"/>
+      <c r="M164" s="18"/>
+    </row>
+    <row r="165" spans="2:13">
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
       <c r="D165" s="12"/>
-      <c r="G165" s="18"/>
-      <c r="H165" s="17"/>
+      <c r="E165" s="12"/>
+      <c r="H165" s="18"/>
       <c r="I165" s="17"/>
-      <c r="L165" s="18"/>
-    </row>
-    <row r="166" spans="2:12">
+      <c r="J165" s="17"/>
+      <c r="M165" s="18"/>
+    </row>
+    <row r="166" spans="2:13">
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
       <c r="D166" s="12"/>
-      <c r="G166" s="18"/>
-      <c r="H166" s="17"/>
+      <c r="E166" s="12"/>
+      <c r="H166" s="18"/>
       <c r="I166" s="17"/>
-      <c r="L166" s="18"/>
-    </row>
-    <row r="167" spans="2:12">
+      <c r="J166" s="17"/>
+      <c r="M166" s="18"/>
+    </row>
+    <row r="167" spans="2:13">
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
       <c r="D167" s="12"/>
-      <c r="G167" s="18"/>
-      <c r="H167" s="17"/>
+      <c r="E167" s="12"/>
+      <c r="H167" s="18"/>
       <c r="I167" s="17"/>
-      <c r="L167" s="18"/>
-    </row>
-    <row r="168" spans="2:12">
+      <c r="J167" s="17"/>
+      <c r="M167" s="18"/>
+    </row>
+    <row r="168" spans="2:13">
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
       <c r="D168" s="12"/>
-      <c r="G168" s="18"/>
-      <c r="H168" s="17"/>
+      <c r="E168" s="12"/>
+      <c r="H168" s="18"/>
       <c r="I168" s="17"/>
-      <c r="L168" s="18"/>
-    </row>
-    <row r="169" spans="2:12">
+      <c r="J168" s="17"/>
+      <c r="M168" s="18"/>
+    </row>
+    <row r="169" spans="2:13">
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
       <c r="D169" s="12"/>
-      <c r="G169" s="18"/>
-      <c r="H169" s="17"/>
+      <c r="E169" s="12"/>
+      <c r="H169" s="18"/>
       <c r="I169" s="17"/>
-      <c r="L169" s="18"/>
-    </row>
-    <row r="170" spans="2:12">
+      <c r="J169" s="17"/>
+      <c r="M169" s="18"/>
+    </row>
+    <row r="170" spans="2:13">
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
       <c r="D170" s="12"/>
-      <c r="G170" s="18"/>
-      <c r="H170" s="17"/>
+      <c r="E170" s="12"/>
+      <c r="H170" s="18"/>
       <c r="I170" s="17"/>
-      <c r="L170" s="18"/>
-    </row>
-    <row r="171" spans="2:12">
+      <c r="J170" s="17"/>
+      <c r="M170" s="18"/>
+    </row>
+    <row r="171" spans="2:13">
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
       <c r="D171" s="12"/>
-      <c r="G171" s="18"/>
-      <c r="H171" s="17"/>
+      <c r="E171" s="12"/>
+      <c r="H171" s="18"/>
       <c r="I171" s="17"/>
-      <c r="L171" s="18"/>
-    </row>
-    <row r="172" spans="2:12">
+      <c r="J171" s="17"/>
+      <c r="M171" s="18"/>
+    </row>
+    <row r="172" spans="2:13">
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
       <c r="D172" s="12"/>
-      <c r="G172" s="18"/>
-      <c r="H172" s="17"/>
+      <c r="E172" s="12"/>
+      <c r="H172" s="18"/>
       <c r="I172" s="17"/>
-      <c r="L172" s="18"/>
-    </row>
-    <row r="173" spans="2:12">
+      <c r="J172" s="17"/>
+      <c r="M172" s="18"/>
+    </row>
+    <row r="173" spans="2:13">
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
       <c r="D173" s="12"/>
-      <c r="G173" s="18"/>
-      <c r="H173" s="17"/>
+      <c r="E173" s="12"/>
+      <c r="H173" s="18"/>
       <c r="I173" s="17"/>
-      <c r="L173" s="18"/>
-    </row>
-    <row r="174" spans="2:12">
+      <c r="J173" s="17"/>
+      <c r="M173" s="18"/>
+    </row>
+    <row r="174" spans="2:13">
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
       <c r="D174" s="12"/>
-      <c r="G174" s="18"/>
-      <c r="H174" s="17"/>
+      <c r="E174" s="12"/>
+      <c r="H174" s="18"/>
       <c r="I174" s="17"/>
-      <c r="L174" s="18"/>
-    </row>
-    <row r="175" spans="2:12">
+      <c r="J174" s="17"/>
+      <c r="M174" s="18"/>
+    </row>
+    <row r="175" spans="2:13">
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
       <c r="D175" s="12"/>
-      <c r="G175" s="18"/>
-      <c r="H175" s="17"/>
+      <c r="E175" s="12"/>
+      <c r="H175" s="18"/>
       <c r="I175" s="17"/>
-      <c r="L175" s="18"/>
-    </row>
-    <row r="176" spans="2:12">
+      <c r="J175" s="17"/>
+      <c r="M175" s="18"/>
+    </row>
+    <row r="176" spans="2:13">
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
       <c r="D176" s="12"/>
-      <c r="G176" s="18"/>
-      <c r="H176" s="17"/>
+      <c r="E176" s="12"/>
+      <c r="H176" s="18"/>
       <c r="I176" s="17"/>
-      <c r="L176" s="18"/>
-    </row>
-    <row r="177" spans="2:12">
+      <c r="J176" s="17"/>
+      <c r="M176" s="18"/>
+    </row>
+    <row r="177" spans="2:13">
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
       <c r="D177" s="12"/>
-      <c r="G177" s="18"/>
-      <c r="H177" s="17"/>
+      <c r="E177" s="12"/>
+      <c r="H177" s="18"/>
       <c r="I177" s="17"/>
-      <c r="L177" s="18"/>
-    </row>
-    <row r="178" spans="2:12">
+      <c r="J177" s="17"/>
+      <c r="M177" s="18"/>
+    </row>
+    <row r="178" spans="2:13">
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
       <c r="D178" s="12"/>
-      <c r="G178" s="18"/>
-      <c r="H178" s="17"/>
+      <c r="E178" s="12"/>
+      <c r="H178" s="18"/>
       <c r="I178" s="17"/>
-      <c r="L178" s="18"/>
-    </row>
-    <row r="179" spans="2:12">
+      <c r="J178" s="17"/>
+      <c r="M178" s="18"/>
+    </row>
+    <row r="179" spans="2:13">
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
       <c r="D179" s="12"/>
-      <c r="G179" s="18"/>
-      <c r="H179" s="17"/>
+      <c r="E179" s="12"/>
+      <c r="H179" s="18"/>
       <c r="I179" s="17"/>
-      <c r="L179" s="18"/>
-    </row>
-    <row r="180" spans="2:12">
+      <c r="J179" s="17"/>
+      <c r="M179" s="18"/>
+    </row>
+    <row r="180" spans="2:13">
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
       <c r="D180" s="12"/>
-      <c r="G180" s="18"/>
-      <c r="H180" s="17"/>
+      <c r="E180" s="12"/>
+      <c r="H180" s="18"/>
       <c r="I180" s="17"/>
-      <c r="L180" s="18"/>
-    </row>
-    <row r="181" spans="2:12">
+      <c r="J180" s="17"/>
+      <c r="M180" s="18"/>
+    </row>
+    <row r="181" spans="2:13">
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
       <c r="D181" s="12"/>
-      <c r="G181" s="18"/>
-      <c r="H181" s="17"/>
+      <c r="E181" s="12"/>
+      <c r="H181" s="18"/>
       <c r="I181" s="17"/>
-      <c r="L181" s="18"/>
-    </row>
-    <row r="182" spans="2:12">
+      <c r="J181" s="17"/>
+      <c r="M181" s="18"/>
+    </row>
+    <row r="182" spans="2:13">
       <c r="B182" s="12"/>
       <c r="C182" s="12"/>
       <c r="D182" s="12"/>
-      <c r="G182" s="18"/>
-      <c r="H182" s="17"/>
+      <c r="E182" s="12"/>
+      <c r="H182" s="18"/>
       <c r="I182" s="17"/>
-      <c r="L182" s="18"/>
-    </row>
-    <row r="183" spans="2:12">
+      <c r="J182" s="17"/>
+      <c r="M182" s="18"/>
+    </row>
+    <row r="183" spans="2:13">
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
       <c r="D183" s="12"/>
-      <c r="G183" s="18"/>
-      <c r="H183" s="17"/>
+      <c r="E183" s="12"/>
+      <c r="H183" s="18"/>
       <c r="I183" s="17"/>
-      <c r="L183" s="18"/>
-    </row>
-    <row r="184" spans="2:12">
+      <c r="J183" s="17"/>
+      <c r="M183" s="18"/>
+    </row>
+    <row r="184" spans="2:13">
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
       <c r="D184" s="12"/>
-      <c r="G184" s="18"/>
-      <c r="H184" s="17"/>
+      <c r="E184" s="12"/>
+      <c r="H184" s="18"/>
       <c r="I184" s="17"/>
-      <c r="L184" s="18"/>
-    </row>
-    <row r="185" spans="2:12">
+      <c r="J184" s="17"/>
+      <c r="M184" s="18"/>
+    </row>
+    <row r="185" spans="2:13">
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
       <c r="D185" s="12"/>
-      <c r="G185" s="18"/>
-      <c r="L185" s="18"/>
-    </row>
-    <row r="186" spans="2:12">
+      <c r="E185" s="12"/>
+      <c r="H185" s="18"/>
+      <c r="M185" s="18"/>
+    </row>
+    <row r="186" spans="2:13">
       <c r="B186" s="12"/>
       <c r="C186" s="12"/>
       <c r="D186" s="12"/>
-      <c r="G186" s="18"/>
-      <c r="L186" s="18"/>
-    </row>
-    <row r="187" spans="2:12">
+      <c r="E186" s="12"/>
+      <c r="H186" s="18"/>
+      <c r="M186" s="18"/>
+    </row>
+    <row r="187" spans="2:13">
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
       <c r="D187" s="12"/>
-      <c r="G187" s="18"/>
-      <c r="L187" s="18"/>
-    </row>
-    <row r="188" spans="2:12">
+      <c r="E187" s="12"/>
+      <c r="H187" s="18"/>
+      <c r="M187" s="18"/>
+    </row>
+    <row r="188" spans="2:13">
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
       <c r="D188" s="12"/>
-      <c r="G188" s="18"/>
-      <c r="L188" s="18"/>
-    </row>
-    <row r="189" spans="2:12">
+      <c r="E188" s="12"/>
+      <c r="H188" s="18"/>
+      <c r="M188" s="18"/>
+    </row>
+    <row r="189" spans="2:13">
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
       <c r="D189" s="12"/>
-      <c r="G189" s="18"/>
-      <c r="L189" s="18"/>
-    </row>
-    <row r="190" spans="2:12">
+      <c r="E189" s="12"/>
+      <c r="H189" s="18"/>
+      <c r="M189" s="18"/>
+    </row>
+    <row r="190" spans="2:13">
       <c r="B190" s="12"/>
       <c r="C190" s="12"/>
       <c r="D190" s="12"/>
-      <c r="G190" s="18"/>
-      <c r="L190" s="18"/>
-    </row>
-    <row r="191" spans="2:12">
+      <c r="E190" s="12"/>
+      <c r="H190" s="18"/>
+      <c r="M190" s="18"/>
+    </row>
+    <row r="191" spans="2:13">
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
       <c r="D191" s="12"/>
-      <c r="G191" s="18"/>
-      <c r="L191" s="18"/>
-    </row>
-    <row r="192" spans="2:12">
+      <c r="E191" s="12"/>
+      <c r="H191" s="18"/>
+      <c r="M191" s="18"/>
+    </row>
+    <row r="192" spans="2:13">
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
       <c r="D192" s="12"/>
-      <c r="G192" s="18"/>
-      <c r="L192" s="18"/>
-    </row>
-    <row r="193" spans="2:12">
+      <c r="E192" s="12"/>
+      <c r="H192" s="18"/>
+      <c r="M192" s="18"/>
+    </row>
+    <row r="193" spans="2:13">
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
       <c r="D193" s="12"/>
-      <c r="G193" s="18"/>
-      <c r="L193" s="18"/>
-    </row>
-    <row r="194" spans="2:12">
+      <c r="E193" s="12"/>
+      <c r="H193" s="18"/>
+      <c r="M193" s="18"/>
+    </row>
+    <row r="194" spans="2:13">
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
       <c r="D194" s="12"/>
-      <c r="G194" s="18"/>
-      <c r="L194" s="18"/>
-    </row>
-    <row r="195" spans="2:12">
+      <c r="E194" s="12"/>
+      <c r="H194" s="18"/>
+      <c r="M194" s="18"/>
+    </row>
+    <row r="195" spans="2:13">
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
       <c r="D195" s="12"/>
-      <c r="G195" s="18"/>
-      <c r="L195" s="18"/>
-    </row>
-    <row r="196" spans="2:12">
+      <c r="E195" s="12"/>
+      <c r="H195" s="18"/>
+      <c r="M195" s="18"/>
+    </row>
+    <row r="196" spans="2:13">
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
       <c r="D196" s="12"/>
-      <c r="G196" s="18"/>
-      <c r="L196" s="18"/>
-    </row>
-    <row r="197" spans="2:12">
+      <c r="E196" s="12"/>
+      <c r="H196" s="18"/>
+      <c r="M196" s="18"/>
+    </row>
+    <row r="197" spans="2:13">
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
       <c r="D197" s="12"/>
-      <c r="G197" s="18"/>
-      <c r="L197" s="18"/>
-    </row>
-    <row r="198" spans="2:12">
+      <c r="E197" s="12"/>
+      <c r="H197" s="18"/>
+      <c r="M197" s="18"/>
+    </row>
+    <row r="198" spans="2:13">
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
       <c r="D198" s="12"/>
-      <c r="G198" s="18"/>
-      <c r="L198" s="18"/>
-    </row>
-    <row r="199" spans="2:12">
+      <c r="E198" s="12"/>
+      <c r="H198" s="18"/>
+      <c r="M198" s="18"/>
+    </row>
+    <row r="199" spans="2:13">
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
       <c r="D199" s="12"/>
-      <c r="G199" s="18"/>
-      <c r="L199" s="18"/>
-    </row>
-    <row r="200" spans="2:12">
+      <c r="E199" s="12"/>
+      <c r="H199" s="18"/>
+      <c r="M199" s="18"/>
+    </row>
+    <row r="200" spans="2:13">
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
       <c r="D200" s="12"/>
-      <c r="G200" s="18"/>
-      <c r="L200" s="18"/>
-    </row>
-    <row r="201" spans="2:12">
+      <c r="E200" s="12"/>
+      <c r="H200" s="18"/>
+      <c r="M200" s="18"/>
+    </row>
+    <row r="201" spans="2:13">
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
       <c r="D201" s="12"/>
-      <c r="G201" s="18"/>
-      <c r="L201" s="18"/>
-    </row>
-    <row r="202" spans="2:12">
+      <c r="E201" s="12"/>
+      <c r="H201" s="18"/>
+      <c r="M201" s="18"/>
+    </row>
+    <row r="202" spans="2:13">
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
       <c r="D202" s="12"/>
-      <c r="G202" s="18"/>
-      <c r="L202" s="18"/>
-    </row>
-    <row r="203" spans="2:12">
+      <c r="E202" s="12"/>
+      <c r="H202" s="18"/>
+      <c r="M202" s="18"/>
+    </row>
+    <row r="203" spans="2:13">
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
       <c r="D203" s="12"/>
-      <c r="G203" s="18"/>
-      <c r="L203" s="18"/>
-    </row>
-    <row r="204" spans="2:12">
+      <c r="E203" s="12"/>
+      <c r="H203" s="18"/>
+      <c r="M203" s="18"/>
+    </row>
+    <row r="204" spans="2:13">
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
       <c r="D204" s="12"/>
-      <c r="G204" s="18"/>
-      <c r="L204" s="18"/>
-    </row>
-    <row r="205" spans="2:12">
+      <c r="E204" s="12"/>
+      <c r="H204" s="18"/>
+      <c r="M204" s="18"/>
+    </row>
+    <row r="205" spans="2:13">
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
       <c r="D205" s="12"/>
-      <c r="G205" s="18"/>
-      <c r="L205" s="18"/>
-    </row>
-    <row r="206" spans="2:12">
+      <c r="E205" s="12"/>
+      <c r="H205" s="18"/>
+      <c r="M205" s="18"/>
+    </row>
+    <row r="206" spans="2:13">
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
       <c r="D206" s="12"/>
-      <c r="G206" s="18"/>
-      <c r="L206" s="18"/>
-    </row>
-    <row r="207" spans="2:12">
+      <c r="E206" s="12"/>
+      <c r="H206" s="18"/>
+      <c r="M206" s="18"/>
+    </row>
+    <row r="207" spans="2:13">
       <c r="B207" s="12"/>
       <c r="C207" s="12"/>
       <c r="D207" s="12"/>
-      <c r="G207" s="18"/>
-      <c r="L207" s="18"/>
-    </row>
-    <row r="208" spans="2:12">
+      <c r="E207" s="12"/>
+      <c r="H207" s="18"/>
+      <c r="M207" s="18"/>
+    </row>
+    <row r="208" spans="2:13">
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
       <c r="D208" s="12"/>
-      <c r="G208" s="18"/>
-      <c r="L208" s="18"/>
-    </row>
-    <row r="209" spans="2:12">
+      <c r="E208" s="12"/>
+      <c r="H208" s="18"/>
+      <c r="M208" s="18"/>
+    </row>
+    <row r="209" spans="2:13">
       <c r="B209" s="12"/>
       <c r="C209" s="12"/>
       <c r="D209" s="12"/>
-      <c r="G209" s="18"/>
-      <c r="L209" s="18"/>
-    </row>
-    <row r="210" spans="2:12">
+      <c r="E209" s="12"/>
+      <c r="H209" s="18"/>
+      <c r="M209" s="18"/>
+    </row>
+    <row r="210" spans="2:13">
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
       <c r="D210" s="12"/>
-      <c r="G210" s="18"/>
-      <c r="L210" s="18"/>
-    </row>
-    <row r="211" spans="2:12">
+      <c r="E210" s="12"/>
+      <c r="H210" s="18"/>
+      <c r="M210" s="18"/>
+    </row>
+    <row r="211" spans="2:13">
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
       <c r="D211" s="12"/>
-      <c r="G211" s="18"/>
-      <c r="L211" s="18"/>
-    </row>
-    <row r="212" spans="2:12">
+      <c r="E211" s="12"/>
+      <c r="H211" s="18"/>
+      <c r="M211" s="18"/>
+    </row>
+    <row r="212" spans="2:13">
       <c r="B212" s="12"/>
       <c r="C212" s="12"/>
       <c r="D212" s="12"/>
-      <c r="G212" s="18"/>
-      <c r="L212" s="18"/>
-    </row>
-    <row r="213" spans="2:12">
+      <c r="E212" s="12"/>
+      <c r="H212" s="18"/>
+      <c r="M212" s="18"/>
+    </row>
+    <row r="213" spans="2:13">
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
       <c r="D213" s="12"/>
-      <c r="G213" s="18"/>
-      <c r="L213" s="18"/>
-    </row>
-    <row r="214" spans="2:12">
+      <c r="E213" s="12"/>
+      <c r="H213" s="18"/>
+      <c r="M213" s="18"/>
+    </row>
+    <row r="214" spans="2:13">
       <c r="B214" s="12"/>
       <c r="C214" s="12"/>
       <c r="D214" s="12"/>
-      <c r="G214" s="18"/>
-      <c r="L214" s="18"/>
-    </row>
-    <row r="215" spans="2:12">
+      <c r="E214" s="12"/>
+      <c r="H214" s="18"/>
+      <c r="M214" s="18"/>
+    </row>
+    <row r="215" spans="2:13">
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
       <c r="D215" s="12"/>
-      <c r="G215" s="18"/>
-      <c r="L215" s="18"/>
-    </row>
-    <row r="216" spans="2:12">
+      <c r="E215" s="12"/>
+      <c r="H215" s="18"/>
+      <c r="M215" s="18"/>
+    </row>
+    <row r="216" spans="2:13">
       <c r="B216" s="12"/>
       <c r="C216" s="12"/>
       <c r="D216" s="12"/>
-      <c r="G216" s="18"/>
-      <c r="L216" s="18"/>
-    </row>
-    <row r="217" spans="2:12">
+      <c r="E216" s="12"/>
+      <c r="H216" s="18"/>
+      <c r="M216" s="18"/>
+    </row>
+    <row r="217" spans="2:13">
       <c r="B217" s="12"/>
       <c r="C217" s="12"/>
       <c r="D217" s="12"/>
-      <c r="G217" s="18"/>
-      <c r="L217" s="18"/>
-    </row>
-    <row r="218" spans="2:12">
+      <c r="E217" s="12"/>
+      <c r="H217" s="18"/>
+      <c r="M217" s="18"/>
+    </row>
+    <row r="218" spans="2:13">
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
       <c r="D218" s="12"/>
-      <c r="G218" s="18"/>
-      <c r="L218" s="18"/>
-    </row>
-    <row r="219" spans="2:12">
+      <c r="E218" s="12"/>
+      <c r="H218" s="18"/>
+      <c r="M218" s="18"/>
+    </row>
+    <row r="219" spans="2:13">
       <c r="B219" s="12"/>
       <c r="C219" s="12"/>
       <c r="D219" s="12"/>
-      <c r="G219" s="18"/>
-      <c r="L219" s="18"/>
-    </row>
-    <row r="220" spans="2:12">
+      <c r="E219" s="12"/>
+      <c r="H219" s="18"/>
+      <c r="M219" s="18"/>
+    </row>
+    <row r="220" spans="2:13">
       <c r="B220" s="12"/>
       <c r="C220" s="12"/>
       <c r="D220" s="12"/>
-      <c r="G220" s="18"/>
-      <c r="L220" s="18"/>
-    </row>
-    <row r="221" spans="2:12">
+      <c r="E220" s="12"/>
+      <c r="H220" s="18"/>
+      <c r="M220" s="18"/>
+    </row>
+    <row r="221" spans="2:13">
       <c r="B221" s="12"/>
       <c r="C221" s="12"/>
       <c r="D221" s="12"/>
-      <c r="G221" s="18"/>
-      <c r="L221" s="18"/>
-    </row>
-    <row r="222" spans="2:12">
+      <c r="E221" s="12"/>
+      <c r="H221" s="18"/>
+      <c r="M221" s="18"/>
+    </row>
+    <row r="222" spans="2:13">
       <c r="B222" s="12"/>
       <c r="C222" s="12"/>
       <c r="D222" s="12"/>
-      <c r="G222" s="18"/>
-      <c r="L222" s="18"/>
-    </row>
-    <row r="223" spans="2:12">
+      <c r="E222" s="12"/>
+      <c r="H222" s="18"/>
+      <c r="M222" s="18"/>
+    </row>
+    <row r="223" spans="2:13">
       <c r="B223" s="12"/>
       <c r="C223" s="12"/>
       <c r="D223" s="12"/>
-      <c r="G223" s="18"/>
-      <c r="L223" s="18"/>
-    </row>
-    <row r="224" spans="2:12">
+      <c r="E223" s="12"/>
+      <c r="H223" s="18"/>
+      <c r="M223" s="18"/>
+    </row>
+    <row r="224" spans="2:13">
       <c r="B224" s="12"/>
       <c r="C224" s="12"/>
       <c r="D224" s="12"/>
-      <c r="G224" s="18"/>
-      <c r="L224" s="18"/>
-    </row>
-    <row r="225" spans="2:12">
+      <c r="E224" s="12"/>
+      <c r="H224" s="18"/>
+      <c r="M224" s="18"/>
+    </row>
+    <row r="225" spans="2:13">
       <c r="B225" s="12"/>
       <c r="C225" s="12"/>
       <c r="D225" s="12"/>
-      <c r="G225" s="18"/>
-      <c r="L225" s="18"/>
-    </row>
-    <row r="226" spans="2:12">
+      <c r="E225" s="12"/>
+      <c r="H225" s="18"/>
+      <c r="M225" s="18"/>
+    </row>
+    <row r="226" spans="2:13">
       <c r="B226" s="12"/>
       <c r="C226" s="12"/>
       <c r="D226" s="12"/>
-      <c r="G226" s="18"/>
-      <c r="L226" s="18"/>
-    </row>
-    <row r="227" spans="2:12">
+      <c r="E226" s="12"/>
+      <c r="H226" s="18"/>
+      <c r="M226" s="18"/>
+    </row>
+    <row r="227" spans="2:13">
       <c r="B227" s="12"/>
       <c r="C227" s="12"/>
       <c r="D227" s="12"/>
-      <c r="G227" s="18"/>
-      <c r="L227" s="18"/>
-    </row>
-    <row r="228" spans="2:12">
+      <c r="E227" s="12"/>
+      <c r="H227" s="18"/>
+      <c r="M227" s="18"/>
+    </row>
+    <row r="228" spans="2:13">
       <c r="B228" s="12"/>
       <c r="C228" s="12"/>
       <c r="D228" s="12"/>
-      <c r="G228" s="18"/>
-      <c r="L228" s="18"/>
-    </row>
-    <row r="229" spans="2:12">
+      <c r="E228" s="12"/>
+      <c r="H228" s="18"/>
+      <c r="M228" s="18"/>
+    </row>
+    <row r="229" spans="2:13">
       <c r="B229" s="12"/>
       <c r="C229" s="12"/>
       <c r="D229" s="12"/>
-      <c r="G229" s="18"/>
-      <c r="L229" s="18"/>
-    </row>
-    <row r="230" spans="2:12">
+      <c r="E229" s="12"/>
+      <c r="H229" s="18"/>
+      <c r="M229" s="18"/>
+    </row>
+    <row r="230" spans="2:13">
       <c r="B230" s="12"/>
       <c r="C230" s="12"/>
       <c r="D230" s="12"/>
-      <c r="G230" s="18"/>
-      <c r="L230" s="18"/>
-    </row>
-    <row r="231" spans="2:12">
+      <c r="E230" s="12"/>
+      <c r="H230" s="18"/>
+      <c r="M230" s="18"/>
+    </row>
+    <row r="231" spans="2:13">
       <c r="B231" s="12"/>
       <c r="C231" s="12"/>
       <c r="D231" s="12"/>
-      <c r="G231" s="18"/>
-      <c r="L231" s="18"/>
-    </row>
-    <row r="232" spans="2:12">
+      <c r="E231" s="12"/>
+      <c r="H231" s="18"/>
+      <c r="M231" s="18"/>
+    </row>
+    <row r="232" spans="2:13">
       <c r="B232" s="12"/>
       <c r="C232" s="12"/>
       <c r="D232" s="12"/>
-      <c r="G232" s="18"/>
-      <c r="L232" s="18"/>
-    </row>
-    <row r="233" spans="2:12">
+      <c r="E232" s="12"/>
+      <c r="H232" s="18"/>
+      <c r="M232" s="18"/>
+    </row>
+    <row r="233" spans="2:13">
       <c r="B233" s="12"/>
       <c r="C233" s="12"/>
       <c r="D233" s="12"/>
-      <c r="G233" s="18"/>
-      <c r="L233" s="18"/>
-    </row>
-    <row r="234" spans="2:12">
+      <c r="E233" s="12"/>
+      <c r="H233" s="18"/>
+      <c r="M233" s="18"/>
+    </row>
+    <row r="234" spans="2:13">
       <c r="B234" s="12"/>
       <c r="C234" s="12"/>
       <c r="D234" s="12"/>
-      <c r="G234" s="18"/>
-      <c r="L234" s="18"/>
-    </row>
-    <row r="235" spans="2:12">
+      <c r="E234" s="12"/>
+      <c r="H234" s="18"/>
+      <c r="M234" s="18"/>
+    </row>
+    <row r="235" spans="2:13">
       <c r="B235" s="12"/>
       <c r="C235" s="12"/>
       <c r="D235" s="12"/>
-      <c r="G235" s="18"/>
-      <c r="L235" s="18"/>
-    </row>
-    <row r="236" spans="2:12">
+      <c r="E235" s="12"/>
+      <c r="H235" s="18"/>
+      <c r="M235" s="18"/>
+    </row>
+    <row r="236" spans="2:13">
       <c r="B236" s="12"/>
       <c r="C236" s="12"/>
       <c r="D236" s="12"/>
-      <c r="G236" s="18"/>
-      <c r="L236" s="18"/>
-    </row>
-    <row r="237" spans="2:12">
+      <c r="E236" s="12"/>
+      <c r="H236" s="18"/>
+      <c r="M236" s="18"/>
+    </row>
+    <row r="237" spans="2:13">
       <c r="B237" s="12"/>
       <c r="C237" s="12"/>
       <c r="D237" s="12"/>
-      <c r="G237" s="18"/>
-      <c r="L237" s="18"/>
-    </row>
-    <row r="238" spans="2:12">
+      <c r="E237" s="12"/>
+      <c r="H237" s="18"/>
+      <c r="M237" s="18"/>
+    </row>
+    <row r="238" spans="2:13">
       <c r="B238" s="12"/>
       <c r="C238" s="12"/>
       <c r="D238" s="12"/>
-      <c r="G238" s="18"/>
-      <c r="L238" s="18"/>
-    </row>
-    <row r="239" spans="2:12">
+      <c r="E238" s="12"/>
+      <c r="H238" s="18"/>
+      <c r="M238" s="18"/>
+    </row>
+    <row r="239" spans="2:13">
       <c r="B239" s="12"/>
       <c r="C239" s="12"/>
       <c r="D239" s="12"/>
-      <c r="G239" s="18"/>
-      <c r="L239" s="18"/>
-    </row>
-    <row r="240" spans="2:12">
+      <c r="E239" s="12"/>
+      <c r="H239" s="18"/>
+      <c r="M239" s="18"/>
+    </row>
+    <row r="240" spans="2:13">
       <c r="B240" s="12"/>
       <c r="C240" s="12"/>
       <c r="D240" s="12"/>
-      <c r="G240" s="18"/>
-      <c r="L240" s="18"/>
-    </row>
-    <row r="241" spans="2:12">
+      <c r="E240" s="12"/>
+      <c r="H240" s="18"/>
+      <c r="M240" s="18"/>
+    </row>
+    <row r="241" spans="2:13">
       <c r="B241" s="12"/>
       <c r="C241" s="12"/>
       <c r="D241" s="12"/>
-      <c r="G241" s="18"/>
-      <c r="L241" s="18"/>
+      <c r="E241" s="12"/>
+      <c r="H241" s="18"/>
+      <c r="M241" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3110,7 +3355,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" customWidth="1"/>
@@ -3159,7 +3404,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3">
